--- a/3부.스타트업 업무 자동화 - 9장.회계 업무 자동화/bank/계좌내역_통합.xlsx
+++ b/3부.스타트업 업무 자동화 - 9장.회계 업무 자동화/bank/계좌내역_통합.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="93048550456_국민은행" sheetId="2" r:id="rId2"/>
+    <sheet name="110332717310_신한은행" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="470">
   <si>
     <t>거래일시</t>
   </si>
@@ -49,6 +50,39 @@
     <t>구분</t>
   </si>
   <si>
+    <t>2019.03.09 18:34:03</t>
+  </si>
+  <si>
+    <t>FBS 출금</t>
+  </si>
+  <si>
+    <t>kakao머니</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>기업디</t>
+  </si>
+  <si>
+    <t>2019.03.08 18:51:31</t>
+  </si>
+  <si>
+    <t>체크카드</t>
+  </si>
+  <si>
+    <t>대독장신용산점</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>KB카드</t>
+  </si>
+  <si>
     <t>2019.03.04 19:42:31</t>
   </si>
   <si>
@@ -58,9 +92,6 @@
     <t>AMARJARGAL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>68238</t>
   </si>
   <si>
@@ -85,18 +116,12 @@
     <t>2019.03.03 16:17:01</t>
   </si>
   <si>
-    <t>체크카드</t>
-  </si>
-  <si>
     <t>세븐일레븐탑골공원점</t>
   </si>
   <si>
     <t>1300</t>
   </si>
   <si>
-    <t>KB카드</t>
-  </si>
-  <si>
     <t>2019.03.03 14:12:48</t>
   </si>
   <si>
@@ -109,9 +134,6 @@
     <t>61500</t>
   </si>
   <si>
-    <t>기업디</t>
-  </si>
-  <si>
     <t>2019.03.03 13:36:19</t>
   </si>
   <si>
@@ -172,15 +194,6 @@
     <t>2019.02.28 12:30:13</t>
   </si>
   <si>
-    <t>FBS 출금</t>
-  </si>
-  <si>
-    <t>kakao머니</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>2019.02.27 20:51:10</t>
   </si>
   <si>
@@ -1351,9 +1364,6 @@
     <t>2018.12.07 08:47:47</t>
   </si>
   <si>
-    <t>5800</t>
-  </si>
-  <si>
     <t>2018.12.06 15:57:06</t>
   </si>
   <si>
@@ -1375,24 +1385,15 @@
     <t>2018.12.06 01:59:07</t>
   </si>
   <si>
-    <t>23100</t>
-  </si>
-  <si>
     <t>2018.12.06 01:59:06</t>
   </si>
   <si>
-    <t>27100</t>
-  </si>
-  <si>
     <t>2018.12.06 01:07:24</t>
   </si>
   <si>
     <t>2018.12.05 18:12:52</t>
   </si>
   <si>
-    <t>5040</t>
-  </si>
-  <si>
     <t>2018.12.05 12:43:48</t>
   </si>
   <si>
@@ -1408,9 +1409,6 @@
     <t>할리스고덕리엔파크점</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>2018.12.04 20:15:18</t>
   </si>
   <si>
@@ -1430,9 +1428,6 @@
   </si>
   <si>
     <t>2018.12.04 08:42:34</t>
-  </si>
-  <si>
-    <t>1000000</t>
   </si>
   <si>
     <t>2018.12.04 06:33:27</t>
@@ -1778,7 +1773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1788,9 +1785,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1840,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>595937</v>
+        <v>576437</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1857,13 +1856,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>527699</v>
+        <v>586437</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1880,13 +1879,13 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4">
-        <v>497699</v>
+        <v>595937</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1903,13 +1902,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5">
-        <v>498999</v>
+        <v>527699</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -1920,45 +1919,45 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>437499</v>
+        <v>497699</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7">
-        <v>375999</v>
+        <v>498999</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1972,16 +1971,16 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>437499</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>381999</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,7 +1988,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1998,13 +1997,13 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>397280</v>
+        <v>375999</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2012,114 +2011,114 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>407080</v>
+        <v>381999</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>411480</v>
+        <v>397280</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>421280</v>
+        <v>407080</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>431280</v>
+        <v>411480</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>467280</v>
+        <v>421280</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2127,281 +2126,281 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>2467280</v>
+        <v>431280</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>1767280</v>
+        <v>467280</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
       <c r="G17">
-        <v>1784280</v>
+        <v>2467280</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>1830980</v>
+        <v>1767280</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>1833780</v>
+        <v>1784280</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>1848940</v>
+        <v>1830980</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>1834240</v>
+        <v>1833780</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
       </c>
       <c r="G22">
         <v>1848940</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>1849240</v>
+        <v>1834240</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>2009240</v>
+        <v>1848940</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <v>9240</v>
+        <v>1849240</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G26">
-        <v>10240</v>
+        <v>2009240</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,45 +2408,45 @@
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>13140</v>
+        <v>9240</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>3140</v>
+        <v>10240</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2455,22 +2454,22 @@
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29">
-        <v>8140</v>
+        <v>13140</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2478,7 +2477,7 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>96</v>
@@ -2487,13 +2486,13 @@
         <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>13140</v>
+        <v>3140</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2501,22 +2500,22 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>17040</v>
+        <v>8140</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,88 +2523,88 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>19940</v>
+        <v>13140</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33">
-        <v>49940</v>
+        <v>17040</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34">
-        <v>94320</v>
+        <v>19940</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>95625</v>
+        <v>49940</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -2613,45 +2612,45 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>111</v>
-      </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>73625</v>
+        <v>94320</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
       <c r="G37">
-        <v>74125</v>
+        <v>95625</v>
       </c>
       <c r="H37" t="s">
         <v>24</v>
@@ -2659,140 +2658,140 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>74625</v>
+        <v>73625</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>68865</v>
+        <v>74125</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G40">
-        <v>82365</v>
+        <v>74625</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>83365</v>
+        <v>68865</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42">
-        <v>84665</v>
+        <v>82365</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>87565</v>
+        <v>83365</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2800,45 +2799,45 @@
         <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="G44">
-        <v>56065</v>
+        <v>84665</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
       <c r="G45">
-        <v>6065</v>
+        <v>87565</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,94 +2845,91 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G46">
-        <v>7065</v>
+        <v>56065</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>13065</v>
+        <v>6065</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48">
-        <v>10394</v>
+        <v>7065</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>138</v>
       </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G49">
+        <v>13065</v>
+      </c>
+      <c r="H49" t="s">
         <v>139</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>9914</v>
-      </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2941,111 +2937,114 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" t="s">
         <v>141</v>
       </c>
-      <c r="E50" t="s">
-        <v>142</v>
-      </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50">
-        <v>33914</v>
+        <v>10394</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
         <v>143</v>
       </c>
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" t="s">
-        <v>145</v>
-      </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51">
-        <v>80714</v>
+        <v>9914</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
         <v>146</v>
       </c>
-      <c r="B52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" t="s">
-        <v>148</v>
-      </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52">
-        <v>112714</v>
+        <v>33914</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>212714</v>
+        <v>80714</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>152</v>
       </c>
-      <c r="E54" t="s">
-        <v>153</v>
-      </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>112714</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3053,22 +3052,22 @@
         <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G55">
-        <v>141714</v>
+        <v>212714</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3076,7 +3075,7 @@
         <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>156</v>
@@ -3085,13 +3084,13 @@
         <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56">
-        <v>41714</v>
+        <v>112714</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,160 +3098,160 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G57">
-        <v>42514</v>
+        <v>141714</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
         <v>160</v>
       </c>
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="G58">
-        <v>342514</v>
+        <v>41714</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59">
         <v>42514</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>163</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
       <c r="G60">
-        <v>52514</v>
+        <v>342514</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>58614</v>
+        <v>42514</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
         <v>167</v>
       </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" t="s">
-        <v>97</v>
-      </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <v>103614</v>
+        <v>52514</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="G63">
-        <v>107514</v>
+        <v>58614</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,22 +3259,22 @@
         <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64">
-        <v>40814</v>
+        <v>103614</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3283,22 +3282,22 @@
         <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
         <v>174</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
       <c r="G65">
-        <v>45314</v>
+        <v>107514</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3306,298 +3305,298 @@
         <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" t="s">
         <v>176</v>
       </c>
-      <c r="E66" t="s">
-        <v>177</v>
-      </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66">
-        <v>63307</v>
+        <v>40814</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
         <v>178</v>
       </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E67" t="s">
-        <v>180</v>
-      </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67">
-        <v>78307</v>
+        <v>45314</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
         <v>181</v>
       </c>
-      <c r="B68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" t="s">
-        <v>182</v>
-      </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68">
-        <v>89107</v>
+        <v>63307</v>
       </c>
       <c r="H68" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
         <v>183</v>
       </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>184</v>
       </c>
-      <c r="E69" t="s">
-        <v>185</v>
-      </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69">
-        <v>199107</v>
+        <v>78307</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
         <v>186</v>
       </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="G70">
-        <v>211407</v>
+        <v>89107</v>
       </c>
       <c r="H70" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>188</v>
       </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>189</v>
       </c>
-      <c r="E71" t="s">
-        <v>190</v>
-      </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71">
-        <v>11407</v>
+        <v>199107</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
         <v>191</v>
       </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
       <c r="G72">
-        <v>27807</v>
+        <v>211407</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
         <v>193</v>
       </c>
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G73">
-        <v>2025409</v>
+        <v>11407</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74">
-        <v>25409</v>
+        <v>27807</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G75">
-        <v>65409</v>
+        <v>2025409</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
         <v>199</v>
       </c>
-      <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" t="s">
-        <v>157</v>
-      </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76">
-        <v>89049</v>
+        <v>25409</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
         <v>201</v>
       </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>202</v>
       </c>
-      <c r="E77" t="s">
-        <v>203</v>
-      </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77">
-        <v>89849</v>
+        <v>65409</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
         <v>204</v>
       </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" t="s">
-        <v>48</v>
-      </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78">
-        <v>98349</v>
+        <v>89049</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3605,160 +3604,160 @@
         <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79">
-        <v>99349</v>
+        <v>89849</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80">
-        <v>100349</v>
+        <v>98349</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81">
-        <v>150349</v>
+        <v>99349</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82">
-        <v>150649</v>
+        <v>100349</v>
       </c>
       <c r="H82" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83">
-        <v>160649</v>
+        <v>150349</v>
       </c>
       <c r="H83" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84">
-        <v>205029</v>
+        <v>150649</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" t="s">
         <v>214</v>
       </c>
-      <c r="B85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C85" t="s">
-        <v>51</v>
-      </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85">
-        <v>226529</v>
+        <v>160649</v>
       </c>
       <c r="H85" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,68 +3765,68 @@
         <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>216</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86">
-        <v>236529</v>
+        <v>205029</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87">
-        <v>242529</v>
+        <v>226529</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
         <v>220</v>
       </c>
-      <c r="B88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" t="s">
-        <v>51</v>
-      </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>261029</v>
+        <v>236529</v>
       </c>
       <c r="H88" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3835,160 +3834,160 @@
         <v>221</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89">
-        <v>301029</v>
+        <v>242529</v>
       </c>
       <c r="H89" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90">
-        <v>310829</v>
+        <v>261029</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" t="s">
         <v>50</v>
       </c>
-      <c r="C91" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" t="s">
-        <v>52</v>
-      </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91">
-        <v>320629</v>
+        <v>301029</v>
       </c>
       <c r="H91" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
         <v>50</v>
       </c>
-      <c r="C92" t="s">
-        <v>51</v>
-      </c>
-      <c r="E92" t="s">
-        <v>52</v>
-      </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92">
-        <v>330629</v>
+        <v>310829</v>
       </c>
       <c r="H92" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93">
-        <v>340629</v>
+        <v>320629</v>
       </c>
       <c r="H93" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94">
-        <v>345759</v>
+        <v>330629</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="E95" t="s">
         <v>230</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95">
-        <v>346559</v>
+        <v>340629</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3996,160 +3995,160 @@
         <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96">
-        <v>484309</v>
+        <v>345759</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
         <v>234</v>
       </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" t="s">
-        <v>236</v>
-      </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97">
-        <v>491339</v>
+        <v>346559</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98" t="s">
         <v>237</v>
       </c>
-      <c r="B98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" t="s">
-        <v>200</v>
-      </c>
-      <c r="E98" t="s">
-        <v>238</v>
-      </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98">
-        <v>498839</v>
+        <v>484309</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
         <v>239</v>
       </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>240</v>
       </c>
-      <c r="E99" t="s">
-        <v>241</v>
-      </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99">
-        <v>500539</v>
+        <v>491339</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" t="s">
         <v>242</v>
       </c>
-      <c r="B100" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" t="s">
-        <v>243</v>
-      </c>
-      <c r="E100" t="s">
-        <v>244</v>
-      </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100">
-        <v>559539</v>
+        <v>498839</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" t="s">
         <v>245</v>
       </c>
-      <c r="B101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" t="s">
-        <v>247</v>
-      </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101">
-        <v>617539</v>
+        <v>500539</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" t="s">
         <v>248</v>
       </c>
-      <c r="B102" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102" t="s">
-        <v>52</v>
-      </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102">
-        <v>628039</v>
+        <v>559539</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,215 +4156,212 @@
         <v>249</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103">
-        <v>638039</v>
+        <v>617539</v>
       </c>
       <c r="H103" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104">
-        <v>648039</v>
+        <v>628039</v>
       </c>
       <c r="H104" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105">
-        <v>709339</v>
+        <v>638039</v>
       </c>
       <c r="H105" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" t="s">
+        <v>256</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>648039</v>
+      </c>
+      <c r="H106" t="s">
         <v>257</v>
-      </c>
-      <c r="B106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" t="s">
-        <v>73</v>
-      </c>
-      <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s">
-        <v>258</v>
-      </c>
-      <c r="G106">
-        <v>730039</v>
-      </c>
-      <c r="H106" t="s">
-        <v>24</v>
-      </c>
-      <c r="I106" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
         <v>259</v>
       </c>
-      <c r="B107" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" t="s">
-        <v>73</v>
-      </c>
       <c r="E107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107">
-        <v>715879</v>
+        <v>709339</v>
       </c>
       <c r="H107" t="s">
-        <v>24</v>
-      </c>
-      <c r="I107" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G108">
         <v>730039</v>
       </c>
       <c r="H108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" t="s">
         <v>262</v>
       </c>
-      <c r="B109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
-      </c>
-      <c r="E109" t="s">
-        <v>258</v>
-      </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109">
-        <v>715739</v>
+        <v>715879</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="G110">
-        <v>729899</v>
+        <v>730039</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="E111" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111">
-        <v>744199</v>
+        <v>715739</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4373,229 +4369,232 @@
         <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112">
-        <v>764699</v>
+        <v>729899</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" t="s">
         <v>270</v>
       </c>
-      <c r="B113" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" t="s">
-        <v>271</v>
-      </c>
-      <c r="E113" t="s">
-        <v>272</v>
-      </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113">
-        <v>790399</v>
+        <v>744199</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" t="s">
         <v>273</v>
       </c>
-      <c r="B114" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" t="s">
-        <v>274</v>
-      </c>
-      <c r="E114" t="s">
-        <v>275</v>
-      </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114">
-        <v>810399</v>
+        <v>764699</v>
       </c>
       <c r="H114" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" t="s">
         <v>276</v>
       </c>
-      <c r="B115" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" t="s">
-        <v>278</v>
-      </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115">
-        <v>822899</v>
+        <v>790399</v>
       </c>
       <c r="H115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" t="s">
         <v>279</v>
       </c>
-      <c r="B116" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" t="s">
-        <v>280</v>
-      </c>
-      <c r="E116" t="s">
-        <v>281</v>
-      </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116">
-        <v>832599</v>
+        <v>810399</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" t="s">
         <v>282</v>
       </c>
-      <c r="B117" t="s">
-        <v>21</v>
-      </c>
-      <c r="C117" t="s">
-        <v>48</v>
-      </c>
-      <c r="E117" t="s">
-        <v>283</v>
-      </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117">
-        <v>851499</v>
+        <v>822899</v>
       </c>
       <c r="H117" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
         <v>284</v>
       </c>
-      <c r="B118" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="E118" t="s">
         <v>285</v>
       </c>
-      <c r="E118" t="s">
-        <v>286</v>
-      </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118">
-        <v>864299</v>
+        <v>832599</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" t="s">
         <v>287</v>
       </c>
-      <c r="B119" t="s">
-        <v>21</v>
-      </c>
-      <c r="C119" t="s">
-        <v>288</v>
-      </c>
-      <c r="E119" t="s">
-        <v>203</v>
-      </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119">
-        <v>873229</v>
+        <v>851499</v>
       </c>
       <c r="H119" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
         <v>289</v>
       </c>
-      <c r="B120" t="s">
-        <v>50</v>
-      </c>
-      <c r="C120" t="s">
-        <v>51</v>
-      </c>
       <c r="E120" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120">
-        <v>881729</v>
+        <v>864299</v>
       </c>
       <c r="H120" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121">
-        <v>901729</v>
+        <v>873229</v>
       </c>
       <c r="H121" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4603,22 +4602,22 @@
         <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122">
-        <v>912729</v>
+        <v>881729</v>
       </c>
       <c r="H122" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4626,45 +4625,45 @@
         <v>294</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>295</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123">
-        <v>917729</v>
+        <v>901729</v>
       </c>
       <c r="H123" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="E124" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>1017729</v>
+        <v>912729</v>
       </c>
       <c r="H124" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,22 +4671,22 @@
         <v>298</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="E125" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125">
-        <v>1048049</v>
+        <v>917729</v>
       </c>
       <c r="H125" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4695,137 +4694,137 @@
         <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" t="s">
         <v>301</v>
       </c>
-      <c r="E126" t="s">
-        <v>302</v>
-      </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126">
-        <v>1049249</v>
+        <v>1017729</v>
       </c>
       <c r="H126" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" t="s">
         <v>303</v>
       </c>
-      <c r="B127" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" t="s">
-        <v>304</v>
-      </c>
-      <c r="E127" t="s">
-        <v>305</v>
-      </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127">
-        <v>1063249</v>
+        <v>1048049</v>
       </c>
       <c r="H127" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>305</v>
+      </c>
+      <c r="E128" t="s">
         <v>306</v>
       </c>
-      <c r="B128" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" t="s">
-        <v>307</v>
-      </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128">
-        <v>1154249</v>
+        <v>1049249</v>
       </c>
       <c r="H128" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
         <v>308</v>
       </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" t="s">
-        <v>200</v>
-      </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129">
-        <v>1174330</v>
+        <v>1063249</v>
       </c>
       <c r="H129" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="E130" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130">
-        <v>1176030</v>
+        <v>1154249</v>
       </c>
       <c r="H130" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="G131">
-        <v>1221030</v>
+        <v>1174330</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,42 +4832,42 @@
         <v>313</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>314</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="F132" t="s">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="G132">
-        <v>1202030</v>
+        <v>1176030</v>
       </c>
       <c r="H132" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
       </c>
-      <c r="B133" t="s">
-        <v>21</v>
-      </c>
-      <c r="C133" t="s">
-        <v>48</v>
-      </c>
-      <c r="E133" t="s">
-        <v>89</v>
-      </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
       <c r="G133">
-        <v>1184830</v>
+        <v>1221030</v>
       </c>
       <c r="H133" t="s">
         <v>24</v>
@@ -4879,114 +4878,114 @@
         <v>317</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C134" t="s">
         <v>318</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G134">
-        <v>1187730</v>
+        <v>1202030</v>
       </c>
       <c r="H134" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="E135" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135">
-        <v>1170530</v>
+        <v>1184830</v>
       </c>
       <c r="H135" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
         <v>322</v>
       </c>
-      <c r="B136" t="s">
-        <v>21</v>
-      </c>
-      <c r="C136" t="s">
-        <v>323</v>
-      </c>
       <c r="E136" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G136">
-        <v>1201050</v>
+        <v>1187730</v>
       </c>
       <c r="H136" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>324</v>
+      </c>
+      <c r="E137" t="s">
         <v>325</v>
       </c>
-      <c r="B137" t="s">
-        <v>21</v>
-      </c>
-      <c r="C137" t="s">
-        <v>326</v>
-      </c>
-      <c r="E137" t="s">
-        <v>327</v>
-      </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137">
-        <v>1222030</v>
+        <v>1170530</v>
       </c>
       <c r="H137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>326</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>327</v>
+      </c>
+      <c r="E138" t="s">
         <v>328</v>
       </c>
-      <c r="B138" t="s">
-        <v>50</v>
-      </c>
-      <c r="C138" t="s">
-        <v>51</v>
-      </c>
-      <c r="E138" t="s">
-        <v>52</v>
-      </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138">
-        <v>1239250</v>
+        <v>1201050</v>
       </c>
       <c r="H138" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,22 +4993,22 @@
         <v>329</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>330</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="F139" t="s">
-        <v>331</v>
+        <v>13</v>
       </c>
       <c r="G139">
-        <v>1249250</v>
+        <v>1222030</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,45 +5016,45 @@
         <v>332</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140">
-        <v>1237250</v>
+        <v>1239250</v>
       </c>
       <c r="H140" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" t="s">
         <v>334</v>
       </c>
-      <c r="B141" t="s">
-        <v>50</v>
-      </c>
-      <c r="C141" t="s">
-        <v>51</v>
-      </c>
       <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
         <v>335</v>
       </c>
-      <c r="F141" t="s">
-        <v>12</v>
-      </c>
       <c r="G141">
-        <v>1737250</v>
+        <v>1249250</v>
       </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5063,229 +5062,229 @@
         <v>336</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G142">
-        <v>2187250</v>
+        <v>1237250</v>
       </c>
       <c r="H142" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="F143" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="G143">
-        <v>187250</v>
+        <v>1737250</v>
       </c>
       <c r="H143" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E144" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G144">
-        <v>187249</v>
+        <v>2187250</v>
       </c>
       <c r="H144" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>341</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s">
         <v>342</v>
       </c>
-      <c r="B145" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" t="s">
-        <v>35</v>
-      </c>
       <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
         <v>343</v>
       </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
       <c r="G145">
-        <v>187549</v>
+        <v>187250</v>
       </c>
       <c r="H145" t="s">
-        <v>24</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C146" t="s">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F146" t="s">
-        <v>346</v>
+        <v>13</v>
       </c>
       <c r="G146">
-        <v>191049</v>
+        <v>187249</v>
       </c>
       <c r="H146" t="s">
-        <v>347</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G147">
-        <v>157049</v>
+        <v>187549</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>348</v>
+      </c>
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>349</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
         <v>350</v>
       </c>
-      <c r="B148" t="s">
-        <v>21</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="G148">
+        <v>191049</v>
+      </c>
+      <c r="H148" t="s">
         <v>351</v>
-      </c>
-      <c r="E148" t="s">
-        <v>352</v>
-      </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148">
-        <v>127049</v>
-      </c>
-      <c r="H148" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" t="s">
         <v>353</v>
       </c>
-      <c r="B149" t="s">
-        <v>21</v>
-      </c>
-      <c r="C149" t="s">
-        <v>354</v>
-      </c>
       <c r="E149" t="s">
-        <v>355</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G149">
-        <v>319049</v>
+        <v>157049</v>
       </c>
       <c r="H149" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>354</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>355</v>
+      </c>
+      <c r="E150" t="s">
         <v>356</v>
       </c>
-      <c r="B150" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" t="s">
-        <v>357</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
       <c r="F150" t="s">
-        <v>346</v>
+        <v>13</v>
       </c>
       <c r="G150">
-        <v>324649</v>
+        <v>127049</v>
       </c>
       <c r="H150" t="s">
-        <v>358</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>357</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>358</v>
+      </c>
+      <c r="E151" t="s">
         <v>359</v>
       </c>
-      <c r="B151" t="s">
-        <v>21</v>
-      </c>
-      <c r="C151" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" t="s">
-        <v>343</v>
-      </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151">
-        <v>290649</v>
+        <v>319049</v>
       </c>
       <c r="H151" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5293,45 +5292,45 @@
         <v>360</v>
       </c>
       <c r="B152" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="G152">
-        <v>294149</v>
+        <v>324649</v>
       </c>
       <c r="H152" t="s">
-        <v>24</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153">
-        <v>319349</v>
+        <v>290649</v>
       </c>
       <c r="H153" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,22 +5338,22 @@
         <v>364</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
+        <v>201</v>
+      </c>
+      <c r="E154" t="s">
         <v>365</v>
       </c>
-      <c r="E154" t="s">
-        <v>145</v>
-      </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154">
-        <v>355349</v>
+        <v>294149</v>
       </c>
       <c r="H154" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5362,51 +5361,45 @@
         <v>366</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
         <v>367</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F155" t="s">
-        <v>368</v>
+        <v>13</v>
       </c>
       <c r="G155">
-        <v>387349</v>
+        <v>319349</v>
       </c>
       <c r="H155" t="s">
-        <v>24</v>
-      </c>
-      <c r="I155" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>368</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
         <v>369</v>
       </c>
-      <c r="B156" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" t="s">
-        <v>367</v>
-      </c>
       <c r="E156" t="s">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156">
-        <v>325349</v>
+        <v>355349</v>
       </c>
       <c r="H156" t="s">
-        <v>24</v>
-      </c>
-      <c r="I156" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,22 +5407,25 @@
         <v>370</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
         <v>371</v>
       </c>
       <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
         <v>372</v>
-      </c>
-      <c r="F157" t="s">
-        <v>12</v>
       </c>
       <c r="G157">
         <v>387349</v>
       </c>
       <c r="H157" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -5437,22 +5433,25 @@
         <v>373</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="E158" t="s">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158">
-        <v>450349</v>
+        <v>325349</v>
       </c>
       <c r="H158" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,7 +5459,7 @@
         <v>374</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
         <v>375</v>
@@ -5469,13 +5468,13 @@
         <v>376</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159">
-        <v>490349</v>
+        <v>387349</v>
       </c>
       <c r="H159" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,22 +5482,22 @@
         <v>377</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160">
-        <v>496749</v>
+        <v>450349</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -5506,160 +5505,160 @@
         <v>378</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161">
-        <v>526749</v>
+        <v>490349</v>
       </c>
       <c r="H161" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="G162">
-        <v>530249</v>
+        <v>496749</v>
       </c>
       <c r="H162" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B163" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163">
-        <v>30249</v>
+        <v>526749</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C164" t="s">
-        <v>383</v>
+        <v>62</v>
       </c>
       <c r="E164" t="s">
-        <v>384</v>
+        <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="G164">
-        <v>74629</v>
+        <v>530249</v>
       </c>
       <c r="H164" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>384</v>
+      </c>
+      <c r="B165" t="s">
+        <v>105</v>
+      </c>
+      <c r="C165" t="s">
         <v>385</v>
       </c>
-      <c r="B165" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" t="s">
-        <v>386</v>
-      </c>
       <c r="E165" t="s">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165">
-        <v>97315</v>
+        <v>30249</v>
       </c>
       <c r="H165" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>386</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" t="s">
+        <v>387</v>
+      </c>
+      <c r="E166" t="s">
         <v>388</v>
       </c>
-      <c r="B166" t="s">
-        <v>79</v>
-      </c>
-      <c r="C166" t="s">
-        <v>80</v>
-      </c>
-      <c r="E166" t="s">
-        <v>389</v>
-      </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166">
-        <v>99315</v>
+        <v>74629</v>
       </c>
       <c r="H166" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>389</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" t="s">
         <v>390</v>
-      </c>
-      <c r="B167" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" t="s">
-        <v>229</v>
       </c>
       <c r="E167" t="s">
         <v>391</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167">
-        <v>103265</v>
+        <v>97315</v>
       </c>
       <c r="H167" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -5667,22 +5666,22 @@
         <v>392</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C168" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="F168" t="s">
-        <v>393</v>
+        <v>13</v>
       </c>
       <c r="G168">
-        <v>238265</v>
+        <v>99315</v>
       </c>
       <c r="H168" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -5690,68 +5689,68 @@
         <v>394</v>
       </c>
       <c r="B169" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="E169" t="s">
-        <v>52</v>
+        <v>395</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169">
-        <v>88265</v>
+        <v>103265</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E170" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="G170">
-        <v>98265</v>
+        <v>238265</v>
       </c>
       <c r="H170" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171">
-        <v>101765</v>
+        <v>88265</v>
       </c>
       <c r="H171" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -5759,45 +5758,45 @@
         <v>399</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="E172" t="s">
-        <v>87</v>
+        <v>347</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172">
-        <v>107665</v>
+        <v>98265</v>
       </c>
       <c r="H172" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
         <v>401</v>
-      </c>
-      <c r="B173" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" t="s">
-        <v>73</v>
       </c>
       <c r="E173" t="s">
         <v>402</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173">
-        <v>108665</v>
+        <v>101765</v>
       </c>
       <c r="H173" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -5805,25 +5804,22 @@
         <v>403</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F174" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="G174">
-        <v>127745</v>
+        <v>107665</v>
       </c>
       <c r="H174" t="s">
-        <v>24</v>
-      </c>
-      <c r="I174" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -5831,48 +5827,48 @@
         <v>405</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E175" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175">
-        <v>107445</v>
+        <v>108665</v>
       </c>
       <c r="H175" t="s">
-        <v>24</v>
-      </c>
-      <c r="I175" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
         <v>408</v>
-      </c>
-      <c r="F176" t="s">
-        <v>12</v>
       </c>
       <c r="G176">
         <v>127745</v>
       </c>
       <c r="H176" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -5880,255 +5876,255 @@
         <v>409</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="E177" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177">
-        <v>129545</v>
+        <v>107445</v>
       </c>
       <c r="H177" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>410</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>411</v>
+      </c>
+      <c r="E178" t="s">
         <v>412</v>
       </c>
-      <c r="B178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" t="s">
-        <v>413</v>
-      </c>
-      <c r="E178" t="s">
-        <v>414</v>
-      </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178">
-        <v>134345</v>
+        <v>127745</v>
       </c>
       <c r="H178" t="s">
-        <v>415</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="E179" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179">
-        <v>195045</v>
+        <v>129545</v>
       </c>
       <c r="H179" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B180" t="s">
         <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>417</v>
       </c>
       <c r="E180" t="s">
-        <v>302</v>
+        <v>418</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180">
-        <v>305965</v>
+        <v>134345</v>
       </c>
       <c r="H180" t="s">
-        <v>24</v>
+        <v>419</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E181" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181">
-        <v>319965</v>
+        <v>195045</v>
       </c>
       <c r="H181" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="E182" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182">
-        <v>478270</v>
+        <v>305965</v>
       </c>
       <c r="H182" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>423</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>387</v>
+      </c>
+      <c r="E183" t="s">
         <v>424</v>
       </c>
-      <c r="B183" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" t="s">
-        <v>397</v>
-      </c>
-      <c r="E183" t="s">
-        <v>425</v>
-      </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183">
-        <v>524270</v>
+        <v>319965</v>
       </c>
       <c r="H183" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>425</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
         <v>426</v>
       </c>
-      <c r="B184" t="s">
-        <v>50</v>
-      </c>
-      <c r="C184" t="s">
-        <v>51</v>
-      </c>
       <c r="E184" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184">
-        <v>529170</v>
+        <v>478270</v>
       </c>
       <c r="H184" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>429</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185">
-        <v>539170</v>
+        <v>524270</v>
       </c>
       <c r="H185" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G186">
-        <v>540170</v>
+        <v>529170</v>
       </c>
       <c r="H186" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B187" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="E187" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F187" t="s">
-        <v>431</v>
+        <v>13</v>
       </c>
       <c r="G187">
-        <v>564210</v>
+        <v>539170</v>
       </c>
       <c r="H187" t="s">
-        <v>24</v>
-      </c>
-      <c r="I187" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6136,91 +6132,97 @@
         <v>432</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E188" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188">
-        <v>534410</v>
+        <v>540170</v>
       </c>
       <c r="H188" t="s">
-        <v>24</v>
-      </c>
-      <c r="I188" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B189" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E189" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="G189">
         <v>564210</v>
       </c>
       <c r="H189" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I189" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B190" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>77</v>
       </c>
       <c r="E190" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190">
-        <v>1064210</v>
+        <v>534410</v>
       </c>
       <c r="H190" t="s">
-        <v>435</v>
+        <v>19</v>
+      </c>
+      <c r="I190" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>437</v>
-      </c>
-      <c r="E191" t="s">
-        <v>127</v>
-      </c>
-      <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>500000</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>1114210</v>
+        <v>564210</v>
       </c>
       <c r="H191" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -6228,45 +6230,42 @@
         <v>438</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
-      </c>
-      <c r="C192" t="s">
-        <v>437</v>
-      </c>
-      <c r="E192" t="s">
-        <v>292</v>
-      </c>
-      <c r="F192" t="s">
-        <v>12</v>
+        <v>151</v>
+      </c>
+      <c r="E192">
+        <v>50000</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>1164210</v>
+        <v>1064210</v>
       </c>
       <c r="H192" t="s">
-        <v>24</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B193" t="s">
-        <v>440</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
         <v>441</v>
       </c>
-      <c r="E193" t="s">
-        <v>159</v>
-      </c>
-      <c r="F193" t="s">
-        <v>12</v>
+      <c r="E193">
+        <v>50000</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>1175210</v>
+        <v>1114210</v>
       </c>
       <c r="H193" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -6274,91 +6273,91 @@
         <v>442</v>
       </c>
       <c r="B194" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" t="s">
-        <v>443</v>
-      </c>
-      <c r="F194" t="s">
-        <v>12</v>
+        <v>441</v>
+      </c>
+      <c r="E194">
+        <v>11000</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>1475210</v>
+        <v>1164210</v>
       </c>
       <c r="H194" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>443</v>
+      </c>
+      <c r="B195" t="s">
         <v>444</v>
-      </c>
-      <c r="B195" t="s">
-        <v>16</v>
       </c>
       <c r="C195" t="s">
         <v>445</v>
       </c>
-      <c r="E195" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" t="s">
-        <v>18</v>
+      <c r="E195">
+        <v>300000</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>1481010</v>
+        <v>1175210</v>
       </c>
       <c r="H195" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B196" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>448</v>
-      </c>
-      <c r="E196" t="s">
-        <v>87</v>
-      </c>
-      <c r="F196" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="E196">
+        <v>5800</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>1451010</v>
+        <v>1475210</v>
       </c>
       <c r="H196" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>447</v>
+      </c>
+      <c r="B197" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" t="s">
+        <v>448</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>30000</v>
+      </c>
+      <c r="G197">
+        <v>1481010</v>
+      </c>
+      <c r="H197" t="s">
         <v>449</v>
-      </c>
-      <c r="B197" t="s">
-        <v>21</v>
-      </c>
-      <c r="C197" t="s">
-        <v>400</v>
-      </c>
-      <c r="E197" t="s">
-        <v>87</v>
-      </c>
-      <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197">
-        <v>1452010</v>
-      </c>
-      <c r="H197" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -6366,22 +6365,22 @@
         <v>450</v>
       </c>
       <c r="B198" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>73</v>
-      </c>
-      <c r="E198" t="s">
         <v>451</v>
       </c>
-      <c r="F198" t="s">
-        <v>12</v>
+      <c r="E198">
+        <v>1000</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>1453010</v>
+        <v>1451010</v>
       </c>
       <c r="H198" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -6389,284 +6388,344 @@
         <v>452</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>73</v>
-      </c>
-      <c r="E199" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" t="s">
-        <v>453</v>
+        <v>404</v>
+      </c>
+      <c r="E199">
+        <v>1000</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
       </c>
       <c r="G199">
-        <v>1476110</v>
+        <v>1452010</v>
       </c>
       <c r="H199" t="s">
-        <v>24</v>
-      </c>
-      <c r="I199" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B200" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>73</v>
-      </c>
-      <c r="E200" t="s">
-        <v>453</v>
-      </c>
-      <c r="F200" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="E200">
+        <v>23100</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>1449010</v>
+        <v>1453010</v>
       </c>
       <c r="H200" t="s">
-        <v>24</v>
-      </c>
-      <c r="I200" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B201" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>80</v>
-      </c>
-      <c r="E201" t="s">
-        <v>456</v>
-      </c>
-      <c r="F201" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>27100</v>
       </c>
       <c r="G201">
         <v>1476110</v>
       </c>
       <c r="H201" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="I201" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>51</v>
-      </c>
-      <c r="E202" t="s">
-        <v>195</v>
-      </c>
-      <c r="F202" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="E202">
+        <v>27100</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>1481150</v>
+        <v>1449010</v>
       </c>
       <c r="H202" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="I202" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C203" t="s">
-        <v>459</v>
-      </c>
-      <c r="E203" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="E203">
+        <v>5040</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>1521150</v>
+        <v>1476110</v>
       </c>
       <c r="H203" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>461</v>
-      </c>
-      <c r="E204" t="s">
-        <v>462</v>
-      </c>
-      <c r="F204" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E204">
+        <v>40000</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>1491150</v>
+        <v>1481150</v>
       </c>
       <c r="H204" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
-        <v>107</v>
-      </c>
-      <c r="E205" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" t="s">
-        <v>18</v>
+        <v>459</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>30000</v>
       </c>
       <c r="G205">
-        <v>1495150</v>
+        <v>1521150</v>
       </c>
       <c r="H205" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B206" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
-      </c>
-      <c r="E206" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" t="s">
-        <v>18</v>
+        <v>461</v>
+      </c>
+      <c r="E206">
+        <v>4000</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>1465150</v>
+        <v>1491150</v>
       </c>
       <c r="H206" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>467</v>
-      </c>
-      <c r="E207" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>30000</v>
       </c>
       <c r="G207">
-        <v>1435150</v>
+        <v>1495150</v>
       </c>
       <c r="H207" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>51</v>
-      </c>
-      <c r="E208" t="s">
-        <v>333</v>
-      </c>
-      <c r="F208" t="s">
-        <v>12</v>
+        <v>464</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>30000</v>
       </c>
       <c r="G208">
-        <v>1405150</v>
+        <v>1465150</v>
       </c>
       <c r="H208" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B209" t="s">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
-      </c>
-      <c r="E209" t="s">
-        <v>470</v>
-      </c>
-      <c r="F209" t="s">
-        <v>12</v>
+        <v>466</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>30000</v>
       </c>
       <c r="G209">
-        <v>1905150</v>
+        <v>1435150</v>
       </c>
       <c r="H209" t="s">
-        <v>135</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B210" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
-      </c>
-      <c r="E210" t="s">
-        <v>272</v>
-      </c>
-      <c r="F210" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E210">
+        <v>500000</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
       </c>
       <c r="G210">
+        <v>1405150</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>468</v>
+      </c>
+      <c r="B211" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" t="s">
+        <v>62</v>
+      </c>
+      <c r="E211">
+        <v>1000000</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>1905150</v>
+      </c>
+      <c r="H211" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>469</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212">
+        <v>20000</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
         <v>2905150</v>
       </c>
-      <c r="H210" t="s">
-        <v>29</v>
+      <c r="H212" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>